--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429466.3482483537</v>
+        <v>441321.8759724686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433862</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21420621.1294826</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4049389.142465299</v>
+        <v>3643225.121736469</v>
       </c>
     </row>
     <row r="11">
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2755,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>8.697622731470398</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2919,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.97802203781059</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>8.697622731470398</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.6744650395993</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>8.697622731470398</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.7339126284566</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>249.4704257338127</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>249.4704257338127</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>249.4704257338127</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>257.783595060088</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>170.7339126284566</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>170.7339126284566</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>170.7339126284566</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>249.4704257338127</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>247.8044431598663</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.6083927757154</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233594</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130393</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>302.9605787043562</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>257.783595060088</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.6983692857935</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>125.7501039955857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>125.7501039955857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>125.7501039955857</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>125.7501039955857</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>197.1464114380115</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>279.1981461478037</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>247.8044431598663</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.8044431598663</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>88.68217791866432</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>167.4186910240205</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>249.4704257338127</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>257.783595060088</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>14.6083927757154</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233624</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>160.041808503247</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130393</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9605787043562</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>331.5221604436049</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>257.783595060088</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>174.0658777763493</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.34816049261072</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.630443208872099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>99.13363799914636</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>207.8018387053777</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>166.0084613034916</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571537</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>166.0084613034916</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>80.3438561123359</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>228.9451278654828</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>226.8120702076073</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>207.6940605373522</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>230.429482583634</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>170.4430906437704</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>146.1213620584277</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>154.0488619437066</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.1166323325362</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>170.6199441891104</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9451278654828</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>204.1649359046993</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>230.429482583634</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>170.4430906437704</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>148.0460251459718</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>157.3975706350561</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>183.1166323325362</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415547</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>170.6199441891101</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>223.4633615162576</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>129.892262961507</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>200.2797113828769</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>151.0971931889688</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>200.2797113828769</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>142.772653367078</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>200.2797113828769</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>142.772653367078</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>186.0210119436098</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>119.3752946937541</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>197.6930977356166</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>114.1019229148603</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>147.5472167125587</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
-        <v>244.8717183592337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24054,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>74.76454034449971</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>83.01913172494328</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>125.9085227957689</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
-        <v>149.920047038524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.95144007103606</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>84.3662809877266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>152.7084756593554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.7041132411936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>282.3923516601063</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>313.2367589263718</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.824608227515469</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>83.01913172494328</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>116.0291624145494</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>122.8924450925762</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>146.4662142960075</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>143.9496993511294</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>203.4242507353822</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2571032129268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>333.8748660120298</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>331.8402549434936</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>74.76454034449982</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>64.03097076691682</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>218.1326167305602</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7196153247131</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>83.01913172494339</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>116.0291624145496</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>152.9197177021739</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>78.92827330581328</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>64.71976952197848</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.8533015525795</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>333.8748660120298</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>266.3604286065119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24999,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>83.01913172494339</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>116.0291624145496</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>159.7994074197436</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8290597323489</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>299.0498299613607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.31249511198764</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>5.675153416007916</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>218.1326167305602</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8402549434936</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.31249511198764</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.824608227515583</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>116.0291624145496</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>151.055474965056</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>77.02575523272274</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>64.71976952197848</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25637,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8402549434936</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.53200392018566</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>74.76454034449982</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.84939989375424</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>77.02575523272274</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>210.7697712942189</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>314298.2927748359</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>314298.2927748359</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>314298.2927748359</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>385024.1085325147</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>385024.1085325147</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>385024.1085325148</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>385024.1085325147</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>385024.1085325147</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>385024.1085325147</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385024.1085325147</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>385024.1085325148</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>314298.2927748359</v>
+        <v>312594.9795618326</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118258.1460845911</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C2" t="n">
         <v>118258.146084591</v>
@@ -26320,40 +26322,40 @@
         <v>118258.146084591</v>
       </c>
       <c r="E2" t="n">
-        <v>124971.6816566929</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="F2" t="n">
-        <v>124971.6816566929</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="G2" t="n">
-        <v>124971.6816566929</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="H2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="I2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="J2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="K2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="L2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="M2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="N2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="O2" t="n">
-        <v>150799.5985017024</v>
+        <v>125752.6029648499</v>
       </c>
       <c r="P2" t="n">
-        <v>124971.6816566929</v>
+        <v>125752.6029648499</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116299.16179806</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>22361.91564678215</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>41632.80552386951</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
-        <v>41632.80552386951</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>41632.80552386951</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>56078.67269655204</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>56078.67269655204</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>56078.67269655203</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>56078.67269655202</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>56078.67269655203</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>56078.67269655203</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>56078.67269655202</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>56078.67269655202</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>41632.80552386951</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722471</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722471</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20126.10276572325</v>
+        <v>20126.10276572321</v>
       </c>
       <c r="C6" t="n">
-        <v>20126.10276572322</v>
+        <v>20126.10276572321</v>
       </c>
       <c r="D6" t="n">
-        <v>20126.1027657232</v>
+        <v>20126.10276572321</v>
       </c>
       <c r="E6" t="n">
-        <v>-36116.01414421634</v>
+        <v>-49184.67314231829</v>
       </c>
       <c r="F6" t="n">
-        <v>80183.14765384368</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="G6" t="n">
-        <v>80183.14765384368</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="H6" t="n">
-        <v>64164.14484064574</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="I6" t="n">
-        <v>86526.06048742791</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="J6" t="n">
-        <v>86526.06048742789</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="K6" t="n">
-        <v>86526.06048742791</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="L6" t="n">
-        <v>86526.06048742789</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="M6" t="n">
-        <v>86526.06048742789</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="N6" t="n">
-        <v>86526.06048742791</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="O6" t="n">
-        <v>86526.06048742791</v>
+        <v>83915.32685768178</v>
       </c>
       <c r="P6" t="n">
-        <v>80183.14765384368</v>
+        <v>83915.32685768178</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26807,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>79.53183141955166</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>79.53183141955166</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090155</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>72.11748226507649</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>79.53183141955165</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577863</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.11748226507632</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,19 +37077,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>72.11748226507629</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>72.11748226507629</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090111</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>42.08948184690367</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>50.86110096733389</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>66.3994579157783</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>72.11748226507629</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>50.86110096733389</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
